--- a/Data/Excels/多表引用示例_RefGroupConfig.xlsx
+++ b/Data/Excels/多表引用示例_RefGroupConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91062C65-4A1D-7246-A53E-F0482ABEE4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A810B7-3089-3A48-A3D8-C2FCD3008DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="540" windowWidth="19200" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,16 @@
   </si>
   <si>
     <t>100|0|0|200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|201</t>
+  </si>
+  <si>
+    <t>100|0|0|201</t>
+  </si>
+  <si>
+    <t>unchecked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -478,6 +488,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -489,6 +502,20 @@
       </c>
       <c r="E4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
